--- a/bsg.xlsx
+++ b/bsg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aslan.Zinedenov\PycharmProjects\piar_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D3C33-5138-40E8-943C-9136D578A15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34393F82-CD09-4750-8390-1DE0B23356D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="BSG-PR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'BSG-PR'!$B$1:$N$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'BSG-PR'!$B$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>COST CENTER - LEVEL  1  - LEVEL  2</t>
   </si>
@@ -157,22 +157,13 @@
     <t>Purchase requisition | Заявка на покупку:</t>
   </si>
   <si>
-    <t>BSG-PR-03787</t>
-  </si>
-  <si>
     <t>Name | Имя:</t>
   </si>
   <si>
-    <t>Muhammed Anuarbek</t>
-  </si>
-  <si>
     <t>Date | Дата:</t>
   </si>
   <si>
     <t>Purpose | Цель:</t>
-  </si>
-  <si>
-    <t>For Mark Hill</t>
   </si>
   <si>
     <t>Cost center |
@@ -349,29 +340,16 @@
   </si>
   <si>
     <t>Total price | Общая стоимость</t>
-  </si>
-  <si>
-    <t>Mark Hill</t>
-  </si>
-  <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>Technodom Operator</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$KZT]"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,12 +438,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -720,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -840,9 +812,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,20 +821,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -884,9 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,13 +877,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,6 +897,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1267,8 +1215,8 @@
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
@@ -1355,7 +1303,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -1366,7 +1314,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="59"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="41" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1323,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="59"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="42" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1332,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="60"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="42" t="s">
         <v>27</v>
       </c>
@@ -1392,13 +1340,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1409,7 +1357,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
@@ -1418,7 +1366,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="55"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
@@ -1446,10 +1394,10 @@
     <tabColor theme="9" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:M21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1468,196 +1416,190 @@
     <col min="12" max="12" width="18.5703125" style="16" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="16" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" style="16" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" style="16" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="16"/>
+    <col min="15" max="17" width="8.85546875" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="80" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="79" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="64"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="50" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="58"/>
+    </row>
+    <row r="5" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57">
+        <v>44837.652037808963</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="64"/>
-    </row>
-    <row r="5" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="63">
-        <v>44686</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="64"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="2:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:17" s="17" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="74"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="68"/>
       <c r="E7" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="74"/>
+        <v>43</v>
+      </c>
+      <c r="G7" s="68"/>
       <c r="H7" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="64"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="23" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="26" t="s">
-        <v>51</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="64"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="32"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="69" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="64"/>
+      <c r="M9" s="58"/>
       <c r="N9" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="G10" s="56"/>
+      <c r="H10" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="32"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="35" t="s">
         <v>25</v>
       </c>
@@ -1667,161 +1609,161 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="93" t="s">
+      <c r="I11" s="82"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="M11" s="58"/>
+      <c r="N11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="91" t="s">
+    </row>
+    <row r="12" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="36"/>
       <c r="N12" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="69" t="s">
+      <c r="K13" s="66"/>
+      <c r="L13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="64"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="26" t="s">
-        <v>79</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="32"/>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="64"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="69" t="s">
+      <c r="K15" s="65"/>
+      <c r="L15" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="64"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="32"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="69" t="s">
+      <c r="K16" s="66"/>
+      <c r="L16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="64"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="33" t="s">
         <v>35</v>
       </c>
@@ -1830,108 +1772,42 @@
       <c r="K17" s="17"/>
     </row>
     <row r="18" spans="2:14" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="45" t="s">
+      <c r="I18" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="J18" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="45" t="s">
+      <c r="K18" s="49"/>
+      <c r="L18" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="M18" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="N18" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43">
-        <v>1</v>
-      </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="49">
-        <v>2</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="48">
-        <v>349990</v>
-      </c>
-      <c r="N19" s="48">
-        <f>M19*E19</f>
-        <v>699980</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N20" s="48">
-        <f>N19</f>
-        <v>699980</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="31">
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="I4:N4"/>
@@ -1939,22 +1815,30 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="G7:G16"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="G7:G16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape"/>
